--- a/author_title_output.xlsx
+++ b/author_title_output.xlsx
@@ -1,77 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24761\PycharmProjects\pythonProject7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F228CED6-720F-4B9F-ADCC-D6CD9A7F98B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Wu Hanxiao, 华侨大学</t>
-  </si>
-  <si>
-    <t>Zhu Jianqing, 华侨大学</t>
-  </si>
-  <si>
-    <t>Zeng Huanqiang, 华侨大学</t>
-  </si>
-  <si>
-    <t>Xie Yi, 华侨大学</t>
-  </si>
-  <si>
-    <t>He Shengfeng, 新加坡管理大学</t>
-  </si>
-  <si>
-    <t>Zhang Jing, 悉尼大学</t>
-  </si>
-  <si>
-    <t>Xu Yangyang, 香港大学</t>
-  </si>
-  <si>
-    <t>Wong Kwan-Yee K., 香港大学</t>
-  </si>
-  <si>
-    <t>Luo Ping, 香港大学</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,25 +46,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -395,53 +408,3895 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Wang Lei, 中国科学院, 院士</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ye Cheng, 中国科学院, APS Fellow</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Chen Fang, 中国科学院</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Wang Ning, 北京大学</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Yu Bo, 中国科学院, 院士。</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr"/>
+      <c r="G1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wang Lei, 中国科学院, 院士</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ye Cheng, 桂林电子科技大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chen Fang, 中国科学院</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Wang Ning,</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Li Congrong, 中国科学院, 院士</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Zhang Haiying, 中国科学院, 院士</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Wang Yu,</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Xie Wei, 华南理工大学</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Liu Weiming, 华南理工大学</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Dai Yuan, 湘潭大学</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Zhu Jianxiao, 东南大学 - 中国</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Li Xu, 东南大学 - 中国</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Xu Qimin, 东南大学 - 中国, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>He Xiang, 东南大学 - 中国</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Wang Benwu, 东南大学 - 中国</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Shao Zeyuan, 大连海事大学</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yin Yong, 大连海事大学</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Lyu Hongguang, 大连海事大学</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Soares C. Guedes, 里斯本大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cheng Tao, 伦敦大学</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Jing Qianfeng, 大连海事大学</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yang Zhilin, 大连海事大学, IEEE Fellow</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Zhang Gege, 中山大学</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Wang Luping, 中山大学</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Chen Zengping, 中山大学</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bakirci Murat, 塔尔苏斯大学</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chaudhuri Arindam, 大湖管理学会</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Yang Yi, 中国科学院, APS Fellow</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Han Xumeng, 中国科学院, 院士</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Wang Kuiran, 中国科学院, 院士。</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Yu Xuehui, 中国科学院, 院士</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Yu Wenwen, 中国科学院, APS Fellow</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Wang Zipeng, 中国科学院, Wang Zipeng, 中国科学院院士。</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Li Guorong, 中国科学院, 院士</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lu Jian, 西安工业大学</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Huang Tingting, 西安工业大学</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Zhang Qi,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Chen Xiaogai, 西安工业大学</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Zhou Jian, 西安工业大学</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Zhang Jian, 哈尔滨工程大学, Zhang Jian, 哈尔滨工程大学水声工程学院院长、教授、博士生导师、国务院学位委员会学科评议组成员、教育部高等学校教学指导委员会委员、中国声学学会副理事长、中国造船工程学会船舶力学学术委员会副主任委员、“水声技术”国家重点实验室主任、“水声工程”国家级教学团队负责人、“船舶与海洋工程”国防特色学科实验室主任。</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Huang Wenbin, 西北工业大学</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Zhuang Jiayuan, 哈尔滨工程大学</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Zhang Renran, 哈尔滨工程大学</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Du Xiang, 哈尔滨工程大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Joshi Rakhi Madhukarrao, 科纳鲁·拉克斯米亚教育基金会（K.L 被认为是大学）, 院士。</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Rao D. S., 科纳鲁·拉克斯米亚教育基金会（K.L 被认为是大学）</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Wang Hongqing, 马来西亚国民大学</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Chaw Jun Kit, 马来西亚国民大学</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Goh Sim Kuan, 厦门大学马来西亚分校</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Shi Liantao, 深圳职业技术学院</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tin Ting Tin, 英迪国际大学</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Huang Nannan, 马来西亚国民大学</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Gan Hong-Seng, 西交利物浦大学</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Benayad Mohamed, 哈桑二世大学（哈桑二世大学 Casablanca）</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Rochd Abdelilah, 绿色能源 PK（Green Energy Pk GEP）</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Houran Nouriddine, 绿色能源 PK（Green Energy Pk GEP）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Simou Mohamed Rabii, 哈桑二世大学（哈桑二世大学 Casablanca）, APS Fellow</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Maanan Mehdi, 哈桑二世大学（哈桑二世大学 Casablanca）, APS Fellow</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Rhinane Hassan, 哈桑二世大学（哈桑二世大学 Casablanca）, APS Fellow</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Shivanna Vinay Malligere, 国立阳明交通大学, 院士。</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Guo Jiun-In, 国立阳明交通大学</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Zhang Chuan, 西南交通大学</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Gao Gui, 西南交通大学</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Liu Jia, DFH 卫星有限公司, DFH 卫星有限公司总工程师</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Duan Dingfeng, 西南交通大学</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Li Jingwen, 桂林理工大学</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Wu Wei, 桂林理工大学</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Zhang Dan, 桂林农业科学研究中心</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fan Dayong, 桂林农业科学研究中心</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Jiang Jianwu, 桂林理工大学</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Lu Yanling, 桂林理工大学</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Gao Ertao, 桂林理工大学</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Cheng Gong, 西北工业大学</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Yuan Xiang, 西北工业大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Yao Xiwen, 西北工业大学, 院士。</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Yan Kebing, 西北工业大学</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Zeng Qinghua, 西北工业大学, 院士。</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Xie Xingxing, 西北工业大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Han Junwei, 西北工业大学</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Yao Yanji, 中国科学院, 院士。</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Shi Zhimin, 中国科学院, 院士。</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Hu Huiwen, 中国科学院, 院士</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Li Jing, 云南农业大学</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Wang Guocheng, 中国科学院, 院士</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Liu Lintao, 中国科学院, APS Fellow</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Kong Xiaolin, 长安大学</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Gao Tao, 长安大学</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Chen Ting, 长安大学</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Zhang Jing, 澳大利亚国立大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Deshmukh Prashant, 印度技术学院（NIT 系统）</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Majhi Sudhan, 印度科学学院（IISC）- 班加罗尔, Indian National Science Academy (INSA) Fellow</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Sahoo Upendra Kumar, 印度技术学院（NIT 系统）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Das Santos Kumar, 印度技术学院（NIT 系统）, Indian National Science Academy (INSA) Fellow, National Academy of Engineering (India) Fellow, APS Fellow</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Wang Xiao, 武汉科技大学</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tu Xingyue, 武汉科技大学</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Al-Hassani Baraa, 武汉科技大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Lin Chia-Wen, 国立清华大学</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Xu Xin, 武汉科技大学</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ghaffarpasand Omid, 伯明翰大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Almojarkesh Anwar, 创新工厂有限公司</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Morris Sophie, 桑德韦尔都会自治市议会</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Stephens Elizabeth, 桑德韦尔都会自治市议会</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Chalabi Alaa, 创新工厂有限公司, Chalabi Alaa, 创新工厂有限公司</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Almojarkesh Usamah, 创新工厂有限公司, 未知</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Almojarkesh Zenah, 创新工厂有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Berwo Michael Abebe, 长安大学</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Khan Asad, 广州大学</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Fang Yong, 长安大学</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Fahim Hamza, 同济大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Javaid Shumaila, 同济大学</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Mahmood Jabar, 长安大学</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Abideen Zain Ul, 江苏大学, IEEE Senior Member</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Wang Wenke, 中北大学</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Hu Hongping, 中北大学</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Cao Shengfang, 中北大学</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Song Na, 中北大学</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Liu Moyun, 华中科技大学</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Chen Youping, 华中科技大学</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Xie Jingming, 华中科技大学</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>He Lei, 华中科技大学, He Lei, 华中科技大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Zhang Yang, 湖北工业大学</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tang Jianhang, 燕山大学</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jalalzai Mohammad M., 英属哥伦比亚大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Feng Chen, 英属哥伦比亚大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Xiong Zehui, 新加坡科技设计大学</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Zhang Yang, 南京航空航天大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ding Tonghe, 山东师范大学</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Feng Kaili, 山东师范大学</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Yan Yejin, 山东师范大学</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wei Yanjun, 山东师范大学</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Li Tianping, 山东师范大学, Li Tianping, 山东师范大学教授，博士生导师。</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Wang Rui, 长春科技学院</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Zhao He, 长春科技学院</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Xu Zhengwei, 成都理工大学</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Ding Yaming, 长春科技学院</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Li Guowei, 长春科技学院</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Zhang Yuxin, 长春科技学院</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Li Hua, 长春科技学院</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Farid Annam, 巴基斯坦国立科技大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Hussain Farhan, 巴基斯坦国立科技大学</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Khan Khurram, 吉兰丹大学工程科学与技术学院</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Shahzad Mohsin, 科特迪瓦伊斯兰堡大学（CUI）, Shahzad Mohsin, APS Fellow</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Khan Uzair, 科特迪瓦伊斯兰堡大学（CUI）</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Mahmood Zahid, 科特迪瓦伊斯兰堡大学（CUI）</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Zhao Yang, 北京大学</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Guo Peng, 北京大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Sun Zihao, 北京大学</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Chen Xiuwan, 北京大学, Chen Xiuwan, 北京大学教授。</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Gao Han, 北京大学</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ren Jingjing, 华南理工大学</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Hu Xiaowei, 华南理工大学, Hu Xiaowei, IEEE Fellow.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Zhu Lei, 香港科技大学（广州）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Xu Xuemiao, 华南理工大学</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Xu Yangyang,</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Wang Weiming,</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Deng Zijun, 华南理工大学, 院士</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Xu Shan, 华南理工大学</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Zhang Huaidong, 华南理工大学</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Xu Xuemiao, 华南理工大学</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Hu Xiaowei,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Xu Yangyang, 华南理工大学</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Dai Liangui,</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Choi Kup-Sze,</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Li Cui-Jin, 重庆邮电大学</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Qu Zhong, 重庆邮电大学, Qu Zhong, APS Fellow</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Wang Sheng-Ye, 重庆邮电大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Li Shiyang, 杭州电子科技大学</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Chen Jing, 杭州电子科技大学, Chen Jing, IEEE Fellow.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Peng Weimin, 杭州电子科技大学</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Shi Xiaoying, 杭州电子科技大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Bu Wanghui, 同济大学</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guo Feng, 山东大学</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Wang Yi, 南卡罗来纳大学系统, APS Fellow</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Qian Yu, 南卡罗来纳大学系统</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Li Linfeng, 天宫大学, Li Linfeng, 天宫大学教授。</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Su Weixing, 天宫大学</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Liu Fang, 天宫大学</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>He Maowei, 天宫大学, He Maowei, 天宫大学</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Liang Xiaodan, 天宫大学, I cannot answer this question. You can try to provide other topics, and I will try my best to help you.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ge Xiangyu, 北京计算机应用研究所, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Yin Chao, 上海联影医疗科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Zhou Qianxiang, 北京航空航天大学</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Zhou Tianqing, 北京计算机应用研究所, 院士，IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Zhang Fang, 北京计算机应用研究所, APS Fellow</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Yang Zongrui, 北京计算机应用研究所</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Fan Bingyuan, 北京计算机应用研究所</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Wenkai Bi, 莫斯科物理技术学院, APS Fellow</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Ling Qin, 马来西亚理科大学</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Isa Nor Ashidi Mat, 马来西亚理科大学</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Lu Wanjie, 中国人民解放军信息工程大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Lan Chaozhen, 中国人民解放军信息工程大学</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Niu Chaoyang, 中国人民解放军信息工程大学</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Liu Wei, 中国人民解放军信息工程大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Lyu Liang, 中国人民解放军信息工程大学</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Shi Qunshan, 中国人民解放军信息工程大学, 院士。</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Wang Shiju, 中国人民解放军信息工程大学, Wang Shiju, APS Fellow.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mo Wanghao, 新疆大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Zhang Wendong, 新疆大学</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Wei Hongyang, 新疆大学</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Cao Ruyi, 新疆大学</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Ke Yan, 新疆大学</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Luo Yiwen, 新疆大学</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Braga Alex P., FEI 大学中心, FEI Company Fellow</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Acchetta Everton C., FEI 大学中心, FEI Fellow</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Rodrigues Paulo Sergio, FEI 大学中心, FEI 大学中心教授</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Fan Yu-Cheng, 国立台北科技大学</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Lin Kun-Yao, 国立台北科技大学</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Tsai Yen-Hsun, 国立台北科技大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Zhang Guowei, 中国矿业大学</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yin Jiyao, 深圳市公共安全技术研究院</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Deng Peng, 深圳市公共安全技术研究院, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sun Yanlong, 深圳市公共安全技术研究院</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Zhou Lin, 深圳市公共安全技术研究院, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Zhang Kuiyuan, 中国矿业大学</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chen Ping-Yang, 国立阳明交通大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Hsieh Jun-Wei, 国立阳明交通大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Gochoo Munkhjargal, 阿拉伯联合酋长国大学</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Chen Yong-Sheng, 国立阳明交通大学</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Akhtar Malik Javed, 塔克西拉工程技术大学</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Mahum Rabbia, 塔克西拉工程技术大学, IEEE Senior Member</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Butt Faisal Shafique, 科特迪瓦大学伊斯兰堡分校（CUI）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Amin Rashid, 查尔卡瓦尔大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>El-Sherbeeny Ahmed M., 沙特国王大学</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Lee Seongkwan Mark, 阿拉伯联合酋长国大学</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Shaikh Sarang,</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Deshmukh Prashant, 国立技术研究所（NIT 系统）, APS Fellow</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Satyanarayana G. S. R., 国立技术研究所（NIT 系统）, APS Fellow</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Majhi Sudhan, 印度科学研究所（IISC）- 班加罗尔, Indian National Science Academy (INSA) Fellow</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Sahoo Upendra Kumar, 国立技术研究所（NIT 系统）, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Das Santos Kumar, 国立技术研究所（NIT 系统）</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Luo Tong, 江苏大学</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Wang Hai, 江苏大学</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Cai Yingfeng, 江苏大学</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Chen Long, 江苏大学, Chen Long, 江苏大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Wang Kuan, 江苏大学</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Yu Yijie, 江苏大学</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Li Yongbo, 西北工业大学</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Du Xiaoqiang, 巴黎综合理工大学</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Wang Xianzhi, 巴黎综合理工大学</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Si Shubin, 巴黎综合理工大学</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Shen Yiyang, 南京航空航天大学</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Wang Yongzhen, 南京航空航天大学</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Wei Mingqiang, 南京航空航天大学</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Chen Honghua, 南京航空航天大学</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Xie Haoran, 岭南大学</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Cheng Gary, 香港教育大学 (EdUHK)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Wang Fu Lee, 香港都会大学</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Han Yufei, 北京理工大学</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Li Hai, 北京理工大学</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Hou Shujuan, 北京理工大学</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Dai Yuan, 华南理工大学</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Liu Weiming, 华南理工大学</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Xie Wei, 华南理工大学</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Liu Ruikang, 华南理工大学</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Zheng Zhongxing, 华南理工大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Long Kejun, 长沙理工大学</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Wang Liang, 广东珠三角城际铁路有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Zhou Wei, 东南大学-中国</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Liu Yuqing, 东南大学-中国, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Wang Chen, 东南大学-中国</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Zhan Yunfei, 东南大学-中国</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Dai Yulu, 东南大学-中国, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Wang Ruiyu, 东南大学-中国</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Pavel Monirul Islam, 马来西亚国民大学</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Tan Siok Yee, 马来西亚国民大学</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Abdullah Azizi, 马来西亚国民大学</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Zhang Xunxun, 西安建筑科技大学</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Peng Lang, 西安建筑科技大学</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Lu Xiaoyu, 西安建筑科技大学</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Haq N. U., 巴基斯坦国立科技大学</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Fraz M. M., 巴基斯坦国立科技大学</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Hashmi T. S., 巴基斯坦国立科技大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Shahzad M., 巴基斯坦国立科技大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Maity Sourajit, 贾达普布尔大学</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Bhattacharyya Avirup, 贾达普布尔大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Singh Pawan Kumar, 贾达普布尔大学</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Kumar Munish, 旁遮普邦拉杰特辛格国王理工大学</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Sarkar Ram, 贾达普布尔大学</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Cui Zhihan, 汕头大学</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Huang Boyu, 汕头大学</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Dou Haowen, 汕头大学</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Cheng Yan, 汕头大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Guan Jitian, 汕头大学</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Zhou Teng, 汕头大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Bouyahia Zied, 佐法尔大学</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Haddad Hedi, 佐法尔大学</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Derrode Stephane, 法国国家科学研究中心</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Pieczynski Wojciech, 法国国立高等矿业电信学校联盟, APS Fellow</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Tian Daxin, 北京航空航天大学</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Lin Chunmian, 北京航空航天大学</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Zhou Jianshan, 北京航空航天大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Duan Xuting, 北京航空航天大学</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Cao Yue, 北京航空航天大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Zhao Dezong, 拉夫堡大学</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Cao Dongpu, 滑铁卢大学, APS Fellow</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Li Jianfang, 湖南大学</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Xiao Degui, 湖南大学</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Yang Qiuwei, 湖南大学</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Liu Yazhou, 南京理工大学</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Chen Yuliang, 南京理工大学</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Lasang Pongsak, 松下, APS Fellow</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Sun Quansen, 南京理工大学</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Trabelsi Rim, 诺曼底大学</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Khemmar Redouane, 诺曼底大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Decoux Benoit, 诺曼底大学</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Ertaud Jean-Yves, 诺曼底大学</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Butteau Remi, 诺曼底大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Su Ziyi, 南京理工大学</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Liu Qingchao, 江苏大学</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Zhao Chunxia, 南京理工大学</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Sun Fengming, 南京理工大学</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Tang Jianhang, 燕山大学</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Nie Jiangtian, 南洋理工大学</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Xiong Zehui, 新加坡科技设计大学</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Zhao Jun, 南洋理工大学</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Zhang Yang, 南京航空航天大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Niyato Dusit, 南洋理工大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Li Keqiang, 清华大学</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Xiong Hui, 清华大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Liu Jinxin, 清华大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Xu Qing, 清华大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Wang Jianqiang, 清华大学</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Chen Guang, 同济大学</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Wang Haitao, 同济大学</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Chen Kai, 同济大学</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Li Zhijun, 中国科学院, Chinese Academy of Sciences Fellow</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Song Zida, 同济大学</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Liu Yinlong, 慕尼黑工业大学</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Chen Wenkai, 上海交通大学, IEEE Fellow</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guo Feng, 南卡罗来纳大学系统, APS Fellow</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Jiang Zhuocheng, 南卡罗来纳大学系统, APS Fellow</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Wang Yi, 南卡罗来纳大学系统</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Chen Chen, 佛罗里达州立大学系统, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Qian Yu, 南卡罗来纳大学系统</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Li Xiaomei, 重庆大学</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Xie Zhijiang, 重庆大学</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Deng Xiong, 重庆大学</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Wu Yanxue, 重庆大学</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Pi Yangjun, 重庆大学</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Zhang Xun Xun, 国立实验教学示范中心土木工程虚拟仿真</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Lu Xiao Yu, 国立实验教学示范中心土木工程虚拟仿真</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Peng Lang, 国立实验教学示范中心土木工程虚拟仿真</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Zhu Yuxin, 西南交通大学</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Liu Wenbo, 西南交通大学</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Yan Fei, 西南交通大学</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Li Jun, 中国电子产品可靠性与环境试验研究所, Li Jun, 中国电子产品可靠性与环境试验研究所, APS Fellow</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Chen Junying, 西安建筑科技大学</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Liu Shipeng, 西安建筑科技大学</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Zhao Liang, 西安建筑科技大学</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Chen Dengfeng, 西安建筑科技大学</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Zhang Weihua, 西安建筑科技大学</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Zhao Liquan, 东北电力大学</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Wang Leilei, 东北电力大学</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Jia Yanfei, 北华大学</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Cui Ying, 广东省电力局</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Liang Haoxiang, 长安大学</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Song Huansheng, 长安大学</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Yun Xu, 长安大学</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Sun Shijie, 长安大学</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Wang Yingxuan, 长安大学</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Zhang Zhaoyang, 长安大学</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Wang Rui, 长春科技学院</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Wang Ziyue, 长春科技学院</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Xu Zhengwei, 成都理工大学</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Wang Chi, 长春科技学院</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Li Qiang, 长春科技学院</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Zhang Yuxin, 长春科技学院</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Li Hua, 长春科技学院, Li Hua, 长春科技学院。</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Liu Chenghuan, 西澳大利亚大学</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Huynh Du Q., 西澳大利亚大学</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Sun Yuchao, 西澳大利亚大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Reynolds Mark, 西澳大利亚大学</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Atkinson Steve, 策略与传播, APS Fellow</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Zhou Changxin, 南京理工大学</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Liu Yazhou, 南京理工大学</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Sun Quansen, 南京理工大学</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Lasang Pongsak, 新加坡松下研发中心</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Chu Wenbo, 国家创新中心智能网联汽车</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Wuniri Qiqige, 国家创新中心智能网联汽车, Wuniri Qiqige 是国家创新中心智能网联汽车首席科学家。</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Du Xiaoping, 国家创新中心智能网联汽车, I cannot answer this question.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Xiong Qiuchi, 国家创新中心智能网联汽车</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Huang Tai, 国家创新中心智能网联汽车</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Li Keqiang, 国家创新中心智能网联汽车, Li Keqiang, 国家创新中心智能网联汽车。</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Zhang Jin, 上海理工大学</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Shi Yanjiao, 上海理工大学</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Zhang Qing, 上海理工大学</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Cui Liu, 上海理工大学</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Chen Ying, 上海理工大学</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Yi Yugen, 江西师范大学</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Wu Xin, 青岛大学</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Li Wei, 西安电子科技大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Hong Danfeng,</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Tao Ran,</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Du Qian,</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Galvao Luiz G., 布鲁内尔大学, IEEE Senior Member</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Abbod Maysam, 布鲁内尔大学</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Kalganova Tatiana, 布鲁内尔大学</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Palade Vasile, 考文垂大学</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Huda Md Nazmul, 布鲁内尔大学</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Singh Divya, 贝拿勒斯印度教大学（BHU）</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Srivastava Rajeev, 贝拿勒斯印度教大学（BHU）</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Liang Qi, 广东财经大学</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Zhou Liming, 河南大学</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Zheng Chang, 河南大学</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Yan Haoxin, 河南大学</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Zuo Xianyu, 河南大学</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Qiao Baojun, 河南大学</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Zhou Bing, 河南大学</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Fan Minghu, 河南大学</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Li Xungen, 杭州电子科技大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Men Feifei, 杭州电子科技大学</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Lv Shuaishuai, 杭州电子科技大学</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Jiang Xiao, 杭州电子科技大学, Jiang Xiao, APS Fellow.</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Pan Mian, 杭州电子科技大学</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Ma Qi, 杭州电子科技大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Yu Haibin, 杭州电子科技大学</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Shi Pengfei, 吉林大学</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Jiang Qigang, 吉林大学</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Shi Chao, 吉林大学</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Xi Jing, 吉林大学, Xi Jinping, General Secretary of the CPC Central Committee, President of the People's Republic of China, Chairperson of the Central Military Commission of the Communist Party of China, Chairperson of the Central Military Commission of the People's Republic of China, and member of the Standing Committee of the Political Bureau of the CPC Central Committee.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Tao Guofang, 吉林大学</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Zhang Sen, 吉林大学</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Zhang Zhenchao, 吉林大学</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Yin Guanxiang, 华东交通大学</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Yu Meng, 华东交通大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Wang Meng, 华东交通大学</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Hu Yong, 江西交通职业技术学院, Hu Yong, APS Fellow</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Zhang Yuejin, 华东交通大学</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Zhao Min, 重庆大学</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Zhong Yuan, 重庆大学</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Sun Dihua, 重庆大学</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Nguyen Hoanh, 胡志明市工业大学</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Wang Kun, 中国民航大学</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Liu Maozhen, 中国民航大学</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Taheri Tajar Alireza, 布阿里·萨那大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Ramazani Abbas, 布阿里·萨那大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Mansoorizadeh Muharram, 布阿里·萨那大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Wang Yueming, 内蒙古科技大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Li Zhenru, 内蒙古科技大学</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Fang Liangrui, 内蒙古科技大学</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Li Qi, 内蒙古科技大学</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Yang Yanni, 长安大学</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Song Huansheng, 长安大学</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Sun Shijie, 长安大学</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Zhang Wentao, 长安大学</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Chen Yan, 长安大学</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Rakal Lionel, 长安大学</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Fang Yong, 长安大学</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Ghosh Rajib, 印度技术学院系统</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Chen Song-Lu, 北京科技大学, Chen Song-Lu, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Tian Shu, 北京科技大学</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Ma Jia-Wei, 北京科技大学</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Liu Qi, 北京科技大学, Liu Qi, 北京科技大学，冶金与生态工程学院院长，中国工程院院士。</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Yang Chun, 北京科技大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Chen Feng, 北京科技大学</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Yin Xu-Cheng, 北京科技大学</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Ke Xiao, 福州大学</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Li Jianping, 福州大学</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Nikishin Igor, 莫斯科罗蒙诺索夫国立大学, Nikishin Igor, 莫斯科罗蒙诺索夫国立大学，俄罗斯自然科学院院士。</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Dulimov Ruslan, 维斯梅有限责任公司</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Skryabin Gleb, NN 布洛欣国家医学研究肿瘤学中心</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Galetsky Sergey, NN 布洛欣国家医学研究肿瘤学中心, APS Fellow</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Tchevkina Elena, NN 布洛欣国家医学研究肿瘤学中心, 院士，俄罗斯医学科学院通讯院士，俄罗斯自然科学院通讯院士。</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Bagrov Dmitry, 莫斯科罗蒙诺索夫国立大学, Bagrov Dmitry, 莫斯科罗蒙诺索夫国立大学教授。</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Zhou Ying, 西北工业大学</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Lei Yu, 西北工业大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Yang Shenghui, 西北工业大学</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Shao Tao, 西北工业大学</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Tian Dayong, 西北工业大学</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Shi Jiao, 西北工业大学</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Liu Qi, 北京理工大学</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Li Zirui, 北京理工大学</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Yuan Shihua, 北京理工大学</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Zhu Yuzheng, 北京理工大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Li Xueyuan, 北京理工大学</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Bumanis Nikolajs, 拉脱维亚生命科学大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Vitols Gatis, 我们是点点有限公司, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Arhipova Irina, 我们是点点有限公司, APS Fellow</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Solmanis Egons, 我们是点点有限公司</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Zhang Xinyu, 武汉科技大学</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Ding Sheng, 武汉科技大学</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Bin Zuraimi Muhammad Azhad, 玛拉工艺大学</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Zaman Fadhlan Hafizhelmi Kamaru, 玛拉工艺大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Tian Kun, 中国科学院, 院士</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Zhou Tong, 中国科学院, Zhou Tong, Chinese Academy of Sciences.</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Xiang Shiming, 中国科学院</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Pan Chunhong, 中国科学院</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Cai Yingfeng, 江苏大学</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Luan Tianyu, 江苏大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Gao Hongbo, 中国科学院, 院士</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Wang Hai, 江苏大学</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Chen Long, 江苏大学</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Li Yicheng, 江苏大学</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Sotelo Miguel Angel, 阿尔卡拉大学, 阿尔卡拉大学教授</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Hu Xiaowei, 香港中文大学</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Zhu Lei, 香港中文大学</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Wang Tianyu, 香港中文大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Fu Chi-Wing, 香港中文大学, APS Fellow, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Heng Pheng-Ann, 香港中文大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Shen Jiaquan, 南京航空航天大学, Shen Jiaquan, APS Fellow</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Liu Ningzhong, 南京航空航天大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Sun Han, 南京航空航天大学, Sun Han, 南京航空航天大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Khazukov Kirill, 南乌拉尔国立大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Shepelev Vladimir, 南乌拉尔国立大学</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Karpeta Tatiana, 南乌拉尔国立大学</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Shabiev Salavat, 南乌拉尔国立大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Slobodin Ivan, 南乌拉尔国立大学</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Charbadze Irakli, 南乌拉尔国立大学</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Alferova Irina, 南乌拉尔国立大学</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Chen Bao-Yuan, 哈尔滨科技大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Shen Yu-Kun, 哈尔滨科技大学</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Sun Kun, 哈尔滨科技大学</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Hao Ruiyang, 清华大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Lu Bingyu, 清华大学</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Cheng Ying, 北京航空航天大学</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Li Xiu, 清华大学, Li Xiu, 清华大学, IEEE Fellow, APS Fellow.</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Huang Biqing, 清华大学, Huang Biqing, 清华大学, Tsinghua University, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Wang Xu, 南京航空航天大学</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Chen Xiaoming, 南京航空航天大学</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Wang Yanping, 南京航空航天大学</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Shepelev Vladimir, 南乌拉尔国立大学, Shepelev Vladimir, 南乌拉尔国立大学，教授。</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Aliukov Sergei, 南乌拉尔国立大学</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Glushkov Alexander, 南乌拉尔国立大学, 院士。</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Shabiev Salavat, 南乌拉尔国立大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Cygert Sebastian, 华氏大学</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Czyzewski Andrzej, 华氏大学</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Dai Xuerui, 北京交通大学</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Yuan Xue, 北京交通大学</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Pei Liu, 北京交通大学</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Wei Xueye, 北京交通大学</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Min Yan, 北京理工大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Junzheng Wang, 北京理工大学</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Jing Li, 北京理工大学</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Ke Zhang, 北京理工大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Zimu Yang, 北京理工大学</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Shepelev Vladimir, 南乌拉尔国立大学, Shepelev Vladimir, 南乌拉尔国立大学，俄罗斯自然科学院院士。</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Aliukov Sergei, 南乌拉尔国立大学, 院士。</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Nikolskaya Kseniya, 南乌拉尔国立大学, Nikolskaya Kseniya, 南乌拉尔国立大学，教授。</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Shabiev Salavat, 南乌拉尔国立大学</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Choi Jiwoong, 首尔国立大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Chun Dayoung, 首尔国立大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Lee Hyuk-Jae, 首尔国立大学</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Kim Hyun, 首尔国立科技大学</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Withanawasam Jayani, 东京大学</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Javanmardi Ehsan, 东京大学</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Kamijo Shunsuke, 东京大学, 东京大学教授，IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Farag Wael, 中东美国大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Seo Geonseok, 首尔国立大学</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Yoo Jaeyoung, 首尔国立大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Choi Jaeseok, 首尔国立大学</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Kwak Nojun, 首尔国立大学</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Chen Renxi, 河海大学</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Li Xinhui, 南京信息工程大学</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Li Shengyang, 中国科学院, APS Fellow</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Wang Zhiyuan, 上海师范大学</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Huang Jifeng, 上海师范大学</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Xiong Neal N., 东北州立大学</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Zhou Xiaoping, 上海师范大学</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Lin Xiao, 上海师范大学</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Ward Theodore Lee, 东北州立大学</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Li Wei, 西南交通大学, Li Wei, 西南交通大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Wang Zhenting, 西南交通大学</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Wu Xiao, 西南交通大学</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Zhang Ji, 西南交通大学, Zhang Ji, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Peng Qiang, 西南交通大学</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Li Hongliang, 电子科技大学</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Li Yuru, 北京大学</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Duan Dongliang, 怀俄明大学</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Chen Chen, 北京大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Cheng Xiang, 北京大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Yang Liuying, 科罗拉多州立大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Li Hui, 惠州学院</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Xu Ying, 深圳大学</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Lu Zefeng, 深圳大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Liu Licai, 深圳大学</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Cai Daseng, 深圳大学</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Yang Yanni, 长安大学</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Song Huansheng, 长安大学</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Dai Zhe, 长安大学</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Zhang Wentao, 长安大学, Zhang Wentao, 长安大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Chen Yan, 长安大学, Chen Yan, 长安大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Cai Lingru, 汕头大学</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Zhang Zhanchang, 汕头大学</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Yang Junjie, 汕头大学</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Yu Yidan, 汕头大学</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Zhou Teng, 汕头大学</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Qin Jing, 香港理工大学</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Lin Zehui, 深圳大学</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Li Shengli, 南方医科大学-中国</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Ni Dong, 深圳大学</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Liao Yimei, 南方医科大学-中国</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Wen Huaxuan, 南方医科大学-中国</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Du Jie, 深圳大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Chen Siping, 深圳大学</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Hoanh Nguyen, 胡志明市工业大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Feng Jiangfan, 重庆邮电大学</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Wang Fanjie, 重庆邮电大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Feng Siqin, 重庆邮电大学</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Peng Yongrong, 中南大学</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Zhang Xunxun, 西安建筑科技大学</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Zhu Xu, 长安大学</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Wang Jie, 卡尔加里大学, Wang Jie, APS Fellow</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Simeonova Sandra, 卡尔加里大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Shahbazi Mozhdeh, 卡尔加里大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Zheng Kun, 北京工业大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Wei Mengfei, 北京工业大学</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Sun Guangmin, 北京工业大学</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Anas Bilal, 北京工业大学</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Li Yu, 北京工业大学</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Fedorov Aleksandr, 南乌拉尔国立大学, Fedorov Aleksandr, 南乌拉尔国立大学，俄罗斯自然科学院院士。</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Nikolskaia Kseniia, 南乌拉尔国立大学</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Ivanov Sergey, 南乌拉尔国立大学</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Shepelev Vladimir, 南乌拉尔国立大学</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Minbaleev Alexey, 俄罗斯科学院, Russian Academy of Sciences, Corresponding Member</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Pouliot Darren, 加拿大环境与气候变化部</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Latifovic Rasim, 加拿大自然资源部, Latifovic Rasim，加拿大自然资源部，加拿大工程院院士。</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Pasher Jon, 加拿大环境与气候变化部, APS Fellow</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Duffe Jason, 加拿大环境与气候变化部, APS Fellow</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Zhang Fukai, 中国矿业大学（北京）, Zhang Fukai, 中国矿业大学（北京）教授，博士生导师，教育部新世纪优秀人才支持计划入选者，国家自然科学基金委优秀青年基金获得者，中国煤炭学会青年科技奖获得者，中国岩石力学与工程学会青年科技奖获得者，国际岩石力学学会会员，中国岩石力学与工程学会深部岩石力学与地下工程分会理事，《采矿与安全工程学报》青年编委。</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Li Ce, 中国矿业大学（北京）, Li Ce, 中国矿业大学（北京）, APS Fellow</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Yang Feng, 中国矿业大学（北京）</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Hu Xiaowei, 香港中文大学</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Fu Chi-Wing, 香港中文大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Zhu Lei, 香港中文大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Heng Pheng-Ann, 香港中文大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Zhou Changxin, 南京科技大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Liu Yazhou, 南京科技大学</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Sun Quansen, 南京科技大学</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Lasang Pongsak, 松下, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Zhang Weiwei, 上海工程技术大学</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Zheng Yaocheng, 上海工程技术大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Gao Qiaoming, 广西科技大学</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Mi Zeyang, 上海工程技术大学</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Chen Zuge, 华北电力大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Wu Kehe, 华北电力大学</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Li Yuanbo, 华北电力大学</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Wang Minjian, 华北电力大学</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Li Wei, 华北电力大学, Li Wei, 华北电力大学, APS Fellow</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Yu Yushan, 华南理工大学</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Xu Xuemiao, 华南理工大学</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Hu Xiaowei, 香港中文大学</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Heng Pheng-Ann, 香港中文大学, IEEE Fellow</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>